--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F2750-6079-4AA2-AB1C-EF12B3CF60CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1017166E-CA41-4622-AE7F-00ED3CBCCC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20490" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -169,19 +169,19 @@
     <t>ELEPHES</t>
   </si>
   <si>
-    <t>*ROR</t>
-  </si>
-  <si>
-    <t>*PROR</t>
-  </si>
-  <si>
-    <t>*STR</t>
-  </si>
-  <si>
-    <t>*SOL</t>
-  </si>
-  <si>
-    <t>*PHES</t>
+    <t>*ROR*</t>
+  </si>
+  <si>
+    <t>*PROR*</t>
+  </si>
+  <si>
+    <t>*STR*</t>
+  </si>
+  <si>
+    <t>*SOL*</t>
+  </si>
+  <si>
+    <t>*PHES*</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
